--- a/Data/Per RHA/Temperature.xlsx
+++ b/Data/Per RHA/Temperature.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charly\Documents\Data Science\Projects\Water management\Data\Per RHA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\charlyfive\Documents\Projects\water_management\Data\Per RHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11105FCF-8C6E-4099-B790-DF19015552FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491DF26-C669-45EE-A6B2-8944B457DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="4275" windowWidth="27960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,58 +992,58 @@
         <v>17</v>
       </c>
       <c r="C9" s="3">
-        <v>21.146605026468897</v>
+        <v>19.581270816127027</v>
       </c>
       <c r="D9" s="3">
-        <v>20.992271972222174</v>
+        <v>19.422435795585798</v>
       </c>
       <c r="E9" s="3">
-        <v>21.228085226692045</v>
+        <v>20.156168623234638</v>
       </c>
       <c r="F9" s="3">
-        <v>21.85096292381014</v>
+        <v>20.598878795780386</v>
       </c>
       <c r="G9" s="3">
-        <v>21.674509788860099</v>
+        <v>20.292354995371639</v>
       </c>
       <c r="H9" s="3">
-        <v>21.149112374127363</v>
+        <v>20.077527466934161</v>
       </c>
       <c r="I9" s="3">
-        <v>21.766231260109823</v>
+        <v>20.2794381352588</v>
       </c>
       <c r="J9" s="3">
-        <v>20.854409808101195</v>
+        <v>19.415551616304157</v>
       </c>
       <c r="K9" s="3">
-        <v>21.422663842188737</v>
+        <v>20.023270844569232</v>
       </c>
       <c r="L9" s="3">
-        <v>21.27</v>
+        <v>19.969374999999999</v>
       </c>
       <c r="M9" s="3">
-        <v>21.667033473580318</v>
+        <v>20.400215618566513</v>
       </c>
       <c r="N9" s="3">
-        <v>21.84</v>
+        <v>20.338541666666668</v>
       </c>
       <c r="O9" s="3">
-        <v>21.94</v>
+        <v>20.599999999999998</v>
       </c>
       <c r="P9" s="3">
-        <v>22.151666666666664</v>
+        <v>20.689583333333335</v>
       </c>
       <c r="Q9" s="3">
-        <v>22.118333333333332</v>
+        <v>20.681249999999999</v>
       </c>
       <c r="R9" s="3">
-        <v>22.086666666666666</v>
+        <v>20.664583333333333</v>
       </c>
       <c r="S9" s="3">
-        <v>22.56</v>
+        <v>21.174999999999997</v>
       </c>
       <c r="T9" s="3">
-        <v>22.259999999999998</v>
+        <v>20.837500000000002</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
